--- a/biology/Botanique/Globularia_meridionalis/Globularia_meridionalis.xlsx
+++ b/biology/Botanique/Globularia_meridionalis/Globularia_meridionalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Globularia meridionalis est une espèce de la famille des Plantaginaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son aire d'origine de cette espèce est le Sud Est des Alpes, les Appennins, la péninsule balkanique et pousse principalement dans le biome tempéré[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire d'origine de cette espèce est le Sud Est des Alpes, les Appennins, la péninsule balkanique et pousse principalement dans le biome tempéré.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un sous-arbrisseau qui a un feuillage persistant foncé et des têtes de fleurs sphériques bleu vif. 
 </t>
@@ -573,12 +589,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Globularia meridionalis (Podp.) O.Schwarz[2].
-Le basionyme de ce taxon est : Globularia cordifolia meridionalis Podp.[2]
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : globulaire méridionale[3].
-Globularia meridionalis a pour synonymes[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Globularia meridionalis (Podp.) O.Schwarz.
+Le basionyme de ce taxon est : Globularia cordifolia meridionalis Podp.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : globulaire méridionale.
+Globularia meridionalis a pour synonymes :
 Globularia bellidifolia Ten.
 Globularia cordifolia subsp. bellidifolia (Nyman) Wettst.
 Globularia cordifolia subsp. meridionalis Podp.
